--- a/mysql/MYSQL宿題02.xlsx
+++ b/mysql/MYSQL宿題02.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/down/chrome/saisk-master/homework/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git080302\takada\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47597751-FEFF-B34E-9E2B-68829984B36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C20C9ED-EA83-4C24-BE29-D5A184E19039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="作业" sheetId="1" r:id="rId1"/>
-    <sheet name="答案" sheetId="2" r:id="rId2"/>
+    <sheet name="宿題" sheetId="1" r:id="rId1"/>
+    <sheet name="正解" sheetId="2" r:id="rId2"/>
     <sheet name="SQLポイント" sheetId="5" r:id="rId3"/>
     <sheet name="チューニング" sheetId="6" r:id="rId4"/>
     <sheet name="トランザクション" sheetId="7" r:id="rId5"/>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="369">
   <si>
     <t>TABLE:</t>
   </si>
@@ -1296,12 +1296,85 @@
     <t>12</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>上記の例に基づいて、2つのテーブルの作成SQLを求めてください。</t>
+  </si>
+  <si>
+    <t>上記の例に基づいて、データ挿入のSQL文を求めてください。更新日時はデータベースに挿入された時の時間にしてください。</t>
+  </si>
+  <si>
+    <t>新潟地区で2007年以降に入社した従業員の給与を10,000円増やしてください。</t>
+  </si>
+  <si>
+    <t>各従業員が所属する部署名を検索してください。</t>
+  </si>
+  <si>
+    <t>部署名がない従業員のレコードを削除してください。</t>
+  </si>
+  <si>
+    <t>従業員の名前と、その従業員に対応するリーダー名を検索してください。</t>
+  </si>
+  <si>
+    <t>リーダーがいない従業員の名前を検索してください。</t>
+  </si>
+  <si>
+    <r>
+      <t>各部署</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGGothicE"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拠点ごとの人数を求め、人数が多い順に降順で並べ替えてください。</t>
+    </r>
+  </si>
+  <si>
+    <t>宿題01</t>
+  </si>
+  <si>
+    <t>宿題02</t>
+  </si>
+  <si>
+    <t>宿題03</t>
+  </si>
+  <si>
+    <t>宿題04</t>
+  </si>
+  <si>
+    <t>宿題05</t>
+  </si>
+  <si>
+    <t>宿題06</t>
+  </si>
+  <si>
+    <t>宿題07</t>
+  </si>
+  <si>
+    <t>宿題08</t>
+  </si>
+  <si>
+    <t>宿題09</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1371,6 +1444,26 @@
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="HGGothicE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1545,7 +1638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1596,9 +1689,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1619,13 +1715,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>615048</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>95024</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1663,14 +1759,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>189486</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>104524</xdr:rowOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>104525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1707,13 +1803,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>202686</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>165002</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1751,14 +1847,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2170,13 +2266,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -2613,6 +2710,9 @@
       <c r="B26" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="I26" s="44" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
@@ -2621,6 +2721,9 @@
       <c r="B27" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="I27" s="44" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
@@ -2629,6 +2732,9 @@
       <c r="B28" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="I28" s="44" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
@@ -2637,6 +2743,9 @@
       <c r="B29" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="I29" s="44" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
@@ -2645,6 +2754,9 @@
       <c r="B30" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="I30" s="44" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
@@ -2656,6 +2768,9 @@
       <c r="E31" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="I31" s="44" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
@@ -2664,21 +2779,27 @@
       <c r="B32" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="I32" s="44" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="I33" s="44" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -2697,607 +2818,650 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:C173"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A2:G178"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="8.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="17" customFormat="1">
-      <c r="A2" s="17" t="s">
-        <v>84</v>
+    <row r="2" spans="1:7" s="17" customFormat="1">
+      <c r="A2" s="45" t="s">
+        <v>360</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="1:7" s="17" customFormat="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="18" t="s">
+    <row r="5" spans="1:7">
+      <c r="B5" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="18" t="s">
+    <row r="6" spans="1:7">
+      <c r="B6" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="18" t="s">
+    <row r="7" spans="1:7">
+      <c r="B7" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="18" t="s">
+    <row r="8" spans="1:7">
+      <c r="B8" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="18" t="s">
+    <row r="9" spans="1:7">
+      <c r="B9" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="18" t="s">
+    <row r="10" spans="1:7">
+      <c r="B10" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="18" t="s">
+    <row r="11" spans="1:7">
+      <c r="B11" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="18" t="s">
+    <row r="12" spans="1:7">
+      <c r="B12" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="18" t="s">
+    <row r="13" spans="1:7">
+      <c r="B13" s="18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="18" t="s">
+    <row r="14" spans="1:7">
+      <c r="B14" s="18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="18" t="s">
+    <row r="15" spans="1:7">
+      <c r="B15" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="18"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="18" t="s">
-        <v>115</v>
-      </c>
+    <row r="16" spans="1:7">
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="17" customFormat="1">
-      <c r="A23" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="17" t="s">
+    <row r="24" spans="1:2" s="17" customFormat="1">
+      <c r="A24" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="18" t="s">
-        <v>122</v>
+    <row r="25" spans="1:2" s="17" customFormat="1">
+      <c r="B25" s="46" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="17" customFormat="1">
-      <c r="A36" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="17" t="s">
+    <row r="38" spans="1:2" s="17" customFormat="1">
+      <c r="A38" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="B38" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
     <row r="39" spans="1:2">
-      <c r="B39" s="18" t="s">
-        <v>133</v>
+      <c r="B39" s="44" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="B42" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="B43" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="B44" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="B45" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="B46" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="B47" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="B49" s="18"/>
-    </row>
-    <row r="63" spans="1:2" s="17" customFormat="1">
-      <c r="A63" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" s="17" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="18"/>
+    </row>
+    <row r="65" spans="1:2" s="17" customFormat="1">
+      <c r="A65" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="B65" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="B65" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="B66" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="B67" s="18" t="s">
-        <v>144</v>
+    <row r="66" spans="1:2" s="17" customFormat="1">
+      <c r="B66" s="46" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="B68" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="B69" s="18" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="B70" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="B71" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" s="18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="17" customFormat="1">
-      <c r="A73" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="17" t="s">
+    <row r="76" spans="1:2" s="17" customFormat="1">
+      <c r="A76" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B76" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="B75" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="B76" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="B77" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="B78" s="18" t="s">
-        <v>135</v>
+    <row r="77" spans="1:2" s="17" customFormat="1">
+      <c r="B77" s="46" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="B79" s="18" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="B80" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="B81" s="18" t="s">
+    <row r="85" spans="2:2">
+      <c r="B85" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="17" customFormat="1">
-      <c r="A93" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" s="17" t="s">
+    <row r="97" spans="1:3" s="17" customFormat="1">
+      <c r="A97" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="B97" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="B94" s="1" t="s">
+    <row r="98" spans="1:3" s="17" customFormat="1">
+      <c r="B98" s="46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="B99" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="C95" s="18" t="s">
+    <row r="100" spans="1:3">
+      <c r="C100" s="18" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="C96" s="18" t="s">
+    <row r="101" spans="1:3">
+      <c r="C101" s="18" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
-      <c r="C97" s="18" t="s">
+    <row r="102" spans="1:3">
+      <c r="C102" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
-      <c r="C98" s="18" t="s">
+    <row r="103" spans="1:3">
+      <c r="C103" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="2:3">
-      <c r="C99" s="18" t="s">
+    <row r="104" spans="1:3">
+      <c r="C104" s="18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="2:3">
-      <c r="C100" s="18" t="s">
+    <row r="105" spans="1:3">
+      <c r="C105" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
-      <c r="C101" s="18" t="s">
+    <row r="106" spans="1:3">
+      <c r="C106" s="18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="2:3">
-      <c r="C102" s="18" t="s">
+    <row r="107" spans="1:3">
+      <c r="C107" s="18" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="2:3">
-      <c r="C103" s="18" t="s">
+    <row r="108" spans="1:3">
+      <c r="C108" s="18" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="104" spans="2:3">
-      <c r="C104" s="18" t="s">
+    <row r="109" spans="1:3">
+      <c r="C109" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="2:3">
-      <c r="C105" s="18" t="s">
+    <row r="110" spans="1:3">
+      <c r="C110" s="18" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
-      <c r="C106" s="18" t="s">
+    <row r="111" spans="1:3">
+      <c r="C111" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
-      <c r="C107" s="18" t="s">
+    <row r="112" spans="1:3">
+      <c r="C112" s="18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="2:3">
-      <c r="C108" s="18" t="s">
+    <row r="113" spans="2:3">
+      <c r="C113" s="18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="109" spans="2:3">
-      <c r="C109" s="1" t="s">
+    <row r="114" spans="2:3">
+      <c r="C114" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="1" t="s">
+    <row r="116" spans="2:3">
+      <c r="B116" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="2:3">
-      <c r="C112" s="18" t="s">
+    <row r="117" spans="2:3">
+      <c r="C117" s="18" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="C113" s="18" t="s">
+    <row r="118" spans="2:3">
+      <c r="C118" s="18" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="C114" s="18" t="s">
+    <row r="119" spans="2:3">
+      <c r="C119" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="C115" s="18" t="s">
+    <row r="120" spans="2:3">
+      <c r="C120" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="C116" s="18" t="s">
+    <row r="121" spans="2:3">
+      <c r="C121" s="18" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="C117" s="18" t="s">
+    <row r="122" spans="2:3">
+      <c r="C122" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="C118" s="18" t="s">
+    <row r="123" spans="2:3">
+      <c r="C123" s="18" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="C119" s="18" t="s">
+    <row r="124" spans="2:3">
+      <c r="C124" s="18" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="C120" s="18" t="s">
+    <row r="125" spans="2:3">
+      <c r="C125" s="18" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="C121" s="18" t="s">
+    <row r="126" spans="2:3">
+      <c r="C126" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="C122" s="18" t="s">
+    <row r="127" spans="2:3">
+      <c r="C127" s="18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="C123" s="18" t="s">
+    <row r="128" spans="2:3">
+      <c r="C128" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="17" customFormat="1">
-      <c r="A128" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B128" s="17" t="s">
+    <row r="133" spans="1:2" s="17" customFormat="1">
+      <c r="A133" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B133" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="18" t="s">
+    <row r="134" spans="1:2" s="17" customFormat="1">
+      <c r="B134" s="46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="B135" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="18" t="s">
+    <row r="136" spans="1:2">
+      <c r="B136" s="18" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="18" t="s">
+    <row r="137" spans="1:2">
+      <c r="B137" s="18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="18" t="s">
+    <row r="138" spans="1:2">
+      <c r="B138" s="18" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="18" t="s">
+    <row r="139" spans="1:2">
+      <c r="B139" s="18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="18" t="s">
+    <row r="140" spans="1:2">
+      <c r="B140" s="18" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="18" t="s">
+    <row r="141" spans="1:2">
+      <c r="B141" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="18" t="s">
+    <row r="142" spans="1:2">
+      <c r="B142" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B152" s="1" t="s">
+    <row r="156" spans="1:2" s="17" customFormat="1">
+      <c r="A156" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="B156" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="B153" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="B154" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="B155" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="B156" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="B157" s="1" t="s">
-        <v>157</v>
+    <row r="157" spans="1:2" s="17" customFormat="1">
+      <c r="B157" s="46" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="B158" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="B159" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="B160" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="B161" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="B162" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="B163" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="B166" s="19" t="s">
+    <row r="171" spans="1:2">
+      <c r="B171" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B167" s="1" t="s">
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="B169" s="1" t="s">
+    <row r="174" spans="1:2">
+      <c r="B174" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="B170" s="1" t="s">
+    <row r="175" spans="1:2">
+      <c r="B175" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="B171" s="1" t="s">
+    <row r="176" spans="1:2">
+      <c r="B176" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="B172" s="1" t="s">
+    <row r="177" spans="2:2">
+      <c r="B177" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="B173" s="1" t="s">
+    <row r="178" spans="2:2">
+      <c r="B178" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3311,13 +3475,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="B2:G35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -3458,13 +3625,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="B2:Q59"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
@@ -3968,13 +4138,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="B2:G96"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
@@ -4379,20 +4552,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECFB74C-6038-461A-9482-F50723D31B14}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A2:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="16" thickBot="1"/>
+    <row r="2" spans="1:16" ht="15.5" thickBot="1"/>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>295</v>
@@ -4411,7 +4587,7 @@
       <c r="O3" s="28"/>
       <c r="P3" s="29"/>
     </row>
-    <row r="4" spans="1:16" ht="16">
+    <row r="4" spans="1:16">
       <c r="B4" s="30" t="s">
         <v>297</v>
       </c>
@@ -4555,7 +4731,7 @@
       <c r="L12" s="32"/>
       <c r="P12" s="33"/>
     </row>
-    <row r="13" spans="1:16" ht="32">
+    <row r="13" spans="1:16" ht="30">
       <c r="B13" s="30" t="s">
         <v>297</v>
       </c>
@@ -4720,7 +4896,7 @@
       </c>
       <c r="P17" s="33"/>
     </row>
-    <row r="18" spans="1:17" ht="16" thickBot="1">
+    <row r="18" spans="1:17" ht="15.5" thickBot="1">
       <c r="F18" s="37"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
@@ -4738,14 +4914,14 @@
       </c>
       <c r="P18" s="33"/>
     </row>
-    <row r="19" spans="1:17" ht="16" thickBot="1">
+    <row r="19" spans="1:17" ht="15.5" thickBot="1">
       <c r="L19" s="37"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
       <c r="O19" s="38"/>
       <c r="P19" s="39"/>
     </row>
-    <row r="20" spans="1:17" ht="16" thickBot="1">
+    <row r="20" spans="1:17" ht="15.5" thickBot="1">
       <c r="A20" t="s">
         <v>341</v>
       </c>
@@ -4753,7 +4929,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="16" thickBot="1">
+    <row r="21" spans="1:17" ht="15.5" thickBot="1">
       <c r="B21" s="41" t="s">
         <v>297</v>
       </c>
@@ -4945,7 +5121,7 @@
       <c r="L33" s="32"/>
       <c r="Q33" s="33"/>
     </row>
-    <row r="34" spans="5:17" ht="32">
+    <row r="34" spans="5:17" ht="30">
       <c r="E34" s="32"/>
       <c r="J34" s="33"/>
       <c r="L34" s="32"/>
@@ -4963,7 +5139,7 @@
       </c>
       <c r="Q34" s="33"/>
     </row>
-    <row r="35" spans="5:17" ht="32">
+    <row r="35" spans="5:17" ht="30">
       <c r="E35" s="32"/>
       <c r="F35" s="31" t="s">
         <v>41</v>
@@ -5023,7 +5199,7 @@
       </c>
       <c r="Q36" s="33"/>
     </row>
-    <row r="37" spans="5:17" ht="16" thickBot="1">
+    <row r="37" spans="5:17" ht="15.5" thickBot="1">
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -5061,7 +5237,7 @@
       </c>
       <c r="Q38" s="33"/>
     </row>
-    <row r="39" spans="5:17" ht="16" thickBot="1">
+    <row r="39" spans="5:17" ht="15.5" thickBot="1">
       <c r="L39" s="37"/>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
@@ -5082,7 +5258,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
